--- a/data/stat probs/kj martin stat probs - condition.xlsx
+++ b/data/stat probs/kj martin stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -579,28 +579,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1669,22 +1669,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2151,28 +2151,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -3241,28 +3241,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -4263,1610 +4263,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>91</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>64</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>55</v>
-      </c>
-      <c r="H4" t="n">
-        <v>45</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18</v>
-      </c>
-      <c r="H5" t="n">
-        <v>82</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>73</v>
-      </c>
-      <c r="F6" t="n">
-        <v>27</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>91</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>55</v>
-      </c>
-      <c r="F7" t="n">
-        <v>45</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>27</v>
-      </c>
-      <c r="F8" t="n">
-        <v>73</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>27</v>
-      </c>
-      <c r="F9" t="n">
-        <v>73</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>18</v>
-      </c>
-      <c r="F10" t="n">
-        <v>82</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>82</v>
-      </c>
-      <c r="D11" t="n">
-        <v>18</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>91</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>82</v>
-      </c>
-      <c r="D12" t="n">
-        <v>18</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>73</v>
-      </c>
-      <c r="D13" t="n">
-        <v>27</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>64</v>
-      </c>
-      <c r="D14" t="n">
-        <v>36</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>36</v>
-      </c>
-      <c r="D15" t="n">
-        <v>64</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>18</v>
-      </c>
-      <c r="D16" t="n">
-        <v>82</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>91</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>91</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>91</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>91</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>91</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>91</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>91</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>91</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>64</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>55</v>
-      </c>
-      <c r="H4" t="n">
-        <v>45</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18</v>
-      </c>
-      <c r="H5" t="n">
-        <v>82</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>73</v>
-      </c>
-      <c r="F6" t="n">
-        <v>27</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>91</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>55</v>
-      </c>
-      <c r="F7" t="n">
-        <v>45</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>27</v>
-      </c>
-      <c r="F8" t="n">
-        <v>73</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>27</v>
-      </c>
-      <c r="F9" t="n">
-        <v>73</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>18</v>
-      </c>
-      <c r="F10" t="n">
-        <v>82</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>82</v>
-      </c>
-      <c r="D11" t="n">
-        <v>18</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>91</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>82</v>
-      </c>
-      <c r="D12" t="n">
-        <v>18</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>73</v>
-      </c>
-      <c r="D13" t="n">
-        <v>27</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>64</v>
-      </c>
-      <c r="D14" t="n">
-        <v>36</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>36</v>
-      </c>
-      <c r="D15" t="n">
-        <v>64</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>18</v>
-      </c>
-      <c r="D16" t="n">
-        <v>82</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>91</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>91</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>91</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>91</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>91</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>91</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>91</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>91</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5935,28 +4331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -6412,7 +4808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6481,28 +4877,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -6958,7 +5354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7027,28 +5423,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -8048,7 +6444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8117,28 +6513,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -9138,7 +7534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9207,28 +7603,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -9900,6 +8296,1354 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91</v>
+      </c>
+      <c r="I2" t="n">
+        <v>73</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>91</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>64</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+      <c r="J4" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18</v>
+      </c>
+      <c r="H5" t="n">
+        <v>82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>91</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>82</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>91</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>73</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>91</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>55</v>
+      </c>
+      <c r="F8" t="n">
+        <v>45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45</v>
+      </c>
+      <c r="F9" t="n">
+        <v>55</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>82</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>91</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>82</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>91</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>64</v>
+      </c>
+      <c r="D13" t="n">
+        <v>36</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>91</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>64</v>
+      </c>
+      <c r="D14" t="n">
+        <v>36</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>91</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>55</v>
+      </c>
+      <c r="D15" t="n">
+        <v>45</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>91</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>55</v>
+      </c>
+      <c r="D16" t="n">
+        <v>45</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>36</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" t="n">
+        <v>82</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>82</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>91</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>91</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>91</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>91</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>75</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>75</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>75</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9977,28 +9721,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -10999,776 +10743,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>91</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>27</v>
-      </c>
-      <c r="J3" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>64</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18</v>
-      </c>
-      <c r="H5" t="n">
-        <v>82</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J5" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>91</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F6" t="n">
-        <v>18</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>91</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>73</v>
-      </c>
-      <c r="F7" t="n">
-        <v>27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>91</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>55</v>
-      </c>
-      <c r="F8" t="n">
-        <v>45</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>91</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>45</v>
-      </c>
-      <c r="F9" t="n">
-        <v>55</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>91</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>18</v>
-      </c>
-      <c r="F10" t="n">
-        <v>82</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>91</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>18</v>
-      </c>
-      <c r="F11" t="n">
-        <v>82</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>82</v>
-      </c>
-      <c r="D12" t="n">
-        <v>18</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>91</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>64</v>
-      </c>
-      <c r="D13" t="n">
-        <v>36</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9</v>
-      </c>
-      <c r="F13" t="n">
-        <v>91</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>64</v>
-      </c>
-      <c r="D14" t="n">
-        <v>36</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>91</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>55</v>
-      </c>
-      <c r="D15" t="n">
-        <v>45</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>91</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>55</v>
-      </c>
-      <c r="D16" t="n">
-        <v>45</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>36</v>
-      </c>
-      <c r="D17" t="n">
-        <v>64</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18</v>
-      </c>
-      <c r="D18" t="n">
-        <v>82</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>18</v>
-      </c>
-      <c r="D19" t="n">
-        <v>82</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9</v>
-      </c>
-      <c r="D20" t="n">
-        <v>91</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9</v>
-      </c>
-      <c r="D21" t="n">
-        <v>91</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>91</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>91</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11837,28 +10811,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -12346,585 +11320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>75</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>75</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>75</v>
-      </c>
-      <c r="D9" t="n">
-        <v>25</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>75</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>75</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>75</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>75</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12993,28 +11389,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -13630,7 +12026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13699,28 +12095,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -14328,6 +12724,1290 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>80</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>60</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>60</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>60</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40</v>
+      </c>
+      <c r="D17" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" t="n">
+        <v>80</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>80</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>60</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>60</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>60</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" t="n">
+        <v>60</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40</v>
+      </c>
+      <c r="D17" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" t="n">
+        <v>80</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -14405,28 +14085,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -15047,28 +14727,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -15689,22 +15369,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16267,22 +15947,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16845,28 +16525,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -17423,28 +17103,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -18193,28 +17873,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -18771,28 +18451,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19445,28 +19125,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20119,28 +19799,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -20953,28 +20633,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -21787,28 +21467,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22333,28 +22013,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22879,28 +22559,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -23681,28 +23361,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -24483,28 +24163,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -25573,28 +25253,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -26343,28 +26023,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -27433,28 +27113,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -28235,28 +27915,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -29037,28 +28717,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -29647,28 +29327,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -30257,28 +29937,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30995,28 +30675,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31733,28 +31413,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -32343,28 +32023,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -32953,22 +32633,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33787,28 +33467,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -34877,22 +34557,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -35711,28 +35391,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -36257,28 +35937,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -36803,28 +36483,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -37349,28 +37029,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -37895,22 +37575,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -38697,22 +38377,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39499,28 +39179,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -40173,28 +39853,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -40847,22 +40527,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -41137,28 +40817,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -42227,22 +41907,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -42517,28 +42197,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43095,28 +42775,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -43673,28 +43353,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44315,28 +43995,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44957,28 +44637,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45727,28 +45407,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46497,28 +46177,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -47235,28 +46915,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -47973,28 +47653,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48647,22 +48327,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -49257,28 +48937,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -49931,22 +49611,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -50509,22 +50189,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51087,28 +50767,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -51729,28 +51409,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -52371,28 +52051,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -53205,28 +52885,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -54039,28 +53719,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -54489,28 +54169,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -54939,28 +54619,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -55357,22 +55037,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -55967,28 +55647,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -56385,28 +56065,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -57155,28 +56835,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -57925,28 +57605,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -58279,28 +57959,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -58633,28 +58313,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -59179,28 +58859,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -59725,28 +59405,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -60495,28 +60175,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -61265,28 +60945,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -62035,22 +61715,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -62517,28 +62197,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -63287,28 +62967,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -63769,28 +63449,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
